--- a/biology/Médecine/Nosophobie/Nosophobie.xlsx
+++ b/biology/Médecine/Nosophobie/Nosophobie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La nosophobie (du grec ancien : νόσος / nósos, signifiant « maladie ») ou pathophobie est une phobie spécifique, une peur irrationnelle de contracter une maladie[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La nosophobie (du grec ancien : νόσος / nósos, signifiant « maladie ») ou pathophobie est une phobie spécifique, une peur irrationnelle de contracter une maladie. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Conséquences de la nosophobie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les patients souffrant de ce type de trouble ont souvent peur de contracter les maladies suivantes dans un premier temps : infections sexuellement transmissibles, tuberculoses, cancers, maladies cardiovasculaires.
 Les nosophobes ont une impression de faiblesse et de fragilité et rêvent de devenir invulnérables. Ils sont obsédés par la prévention des maladies.
@@ -544,7 +558,9 @@
           <t>Le piège de la fuite en avant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nosophobes vivent dans l'illusion que le seul moyen d'aller mieux est de construire des barrières infranchissables contre les maladies et de développer une santé invulnérable. Mais cette fuite en avant les conduit à se retirer du monde et à vivre seul dans leur appartement, le seul endroit ou ils se sentent à peu près en sécurité.
 La nosophobie, tout comme l'hypocondrie, est une maladie qui découle d'une peur obsessionnelle. Quand ils ne comprennent pas ce qui leur arrive, les malades ont tendance à combattre l'objet de leur peur plutôt que remettre en cause la peur elle-même. Voilà pourquoi ils ne peuvent pas guérir de cette façon.
@@ -576,9 +592,11 @@
           <t>Lien avec le syndrome de l'étudiant en médecine</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains auteurs suggèrent que le syndrome de l'étudiant en médecine se réfère à la nosophobie[2] plutôt que le terme d'« hypocondrie », car les études citées ne montrent aucune caractéristique hypocondriaque de cet état (à savoir une peur « générale » d'avoir une maladie, et non une peur focalisée sur une ou plusieurs maladies précises comme c'est le cas ici).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains auteurs suggèrent que le syndrome de l'étudiant en médecine se réfère à la nosophobie plutôt que le terme d'« hypocondrie », car les études citées ne montrent aucune caractéristique hypocondriaque de cet état (à savoir une peur « générale » d'avoir une maladie, et non une peur focalisée sur une ou plusieurs maladies précises comme c'est le cas ici).
 </t>
         </is>
       </c>
